--- a/Document/데이터/미션데이터.xlsx
+++ b/Document/데이터/미션데이터.xlsx
@@ -465,8 +465,8 @@
   <dimension ref="B1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1146,8 +1146,12 @@
       <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="4">
+        <v>4</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
       <c r="I29" s="4">
         <v>0</v>
       </c>
@@ -1168,8 +1172,12 @@
       <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
       <c r="I30" s="4">
         <v>0</v>
       </c>
@@ -1190,8 +1198,12 @@
       <c r="F31" s="4">
         <v>3</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>4</v>
+      </c>
       <c r="I31" s="4">
         <v>0</v>
       </c>
@@ -1212,8 +1224,12 @@
       <c r="F32" s="4">
         <v>4</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="4">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
       <c r="I32" s="4">
         <v>0</v>
       </c>
@@ -1234,8 +1250,12 @@
       <c r="F33" s="4">
         <v>5</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="G33" s="4">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4">
+        <v>3</v>
+      </c>
       <c r="I33" s="4">
         <v>0</v>
       </c>
@@ -1256,8 +1276,12 @@
       <c r="F34" s="4">
         <v>6</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="4">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4">
+        <v>6</v>
+      </c>
       <c r="I34" s="4">
         <v>0</v>
       </c>
@@ -1278,8 +1302,12 @@
       <c r="F35" s="4">
         <v>7</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="4">
+        <v>8</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3</v>
+      </c>
       <c r="I35" s="4">
         <v>0</v>
       </c>
@@ -1300,8 +1328,12 @@
       <c r="F36" s="4">
         <v>8</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="4">
+        <v>6</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5</v>
+      </c>
       <c r="I36" s="4">
         <v>0</v>
       </c>
@@ -1322,8 +1354,12 @@
       <c r="F37" s="4">
         <v>9</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="G37" s="4">
+        <v>3</v>
+      </c>
+      <c r="H37" s="4">
+        <v>8</v>
+      </c>
       <c r="I37" s="4">
         <v>0</v>
       </c>
@@ -1344,8 +1380,12 @@
       <c r="F38" s="3">
         <v>1</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="3">
+        <v>4</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
       <c r="I38" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1406,12 @@
       <c r="F39" s="3">
         <v>2</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="G39" s="3">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
       <c r="I39" s="3">
         <v>0</v>
       </c>
@@ -1388,8 +1432,12 @@
       <c r="F40" s="3">
         <v>3</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4</v>
+      </c>
       <c r="I40" s="3">
         <v>0</v>
       </c>
@@ -1410,8 +1458,12 @@
       <c r="F41" s="3">
         <v>4</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="G41" s="3">
+        <v>6</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2</v>
+      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1432,8 +1484,12 @@
       <c r="F42" s="3">
         <v>5</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="G42" s="3">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3</v>
+      </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
@@ -1454,8 +1510,12 @@
       <c r="F43" s="3">
         <v>6</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="G43" s="3">
+        <v>2</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6</v>
+      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -1476,8 +1536,12 @@
       <c r="F44" s="3">
         <v>7</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="G44" s="3">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3</v>
+      </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
@@ -1498,8 +1562,12 @@
       <c r="F45" s="3">
         <v>8</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="G45" s="3">
+        <v>6</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5</v>
+      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -1520,8 +1588,12 @@
       <c r="F46" s="3">
         <v>9</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="G46" s="3">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8</v>
+      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -1542,8 +1614,12 @@
       <c r="F47" s="5">
         <v>1</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="G47" s="5">
+        <v>4</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
       <c r="I47" s="5">
         <v>0</v>
       </c>
@@ -1564,8 +1640,12 @@
       <c r="F48" s="5">
         <v>2</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="G48" s="5">
+        <v>3</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2</v>
+      </c>
       <c r="I48" s="5">
         <v>0</v>
       </c>
@@ -1586,8 +1666,12 @@
       <c r="F49" s="5">
         <v>3</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>4</v>
+      </c>
       <c r="I49" s="5">
         <v>0</v>
       </c>
@@ -1608,8 +1692,12 @@
       <c r="F50" s="5">
         <v>4</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="G50" s="5">
+        <v>6</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2</v>
+      </c>
       <c r="I50" s="5">
         <v>0</v>
       </c>
@@ -1630,8 +1718,12 @@
       <c r="F51" s="5">
         <v>5</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="G51" s="5">
+        <v>5</v>
+      </c>
+      <c r="H51" s="5">
+        <v>3</v>
+      </c>
       <c r="I51" s="5">
         <v>0</v>
       </c>
@@ -1652,8 +1744,12 @@
       <c r="F52" s="5">
         <v>6</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="G52" s="5">
+        <v>2</v>
+      </c>
+      <c r="H52" s="5">
+        <v>6</v>
+      </c>
       <c r="I52" s="5">
         <v>0</v>
       </c>
@@ -1674,8 +1770,12 @@
       <c r="F53" s="5">
         <v>7</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="G53" s="5">
+        <v>8</v>
+      </c>
+      <c r="H53" s="5">
+        <v>3</v>
+      </c>
       <c r="I53" s="5">
         <v>0</v>
       </c>
@@ -1696,8 +1796,12 @@
       <c r="F54" s="5">
         <v>8</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="G54" s="5">
+        <v>6</v>
+      </c>
+      <c r="H54" s="5">
+        <v>5</v>
+      </c>
       <c r="I54" s="5">
         <v>0</v>
       </c>
@@ -1718,8 +1822,12 @@
       <c r="F55" s="5">
         <v>9</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="G55" s="5">
+        <v>3</v>
+      </c>
+      <c r="H55" s="5">
+        <v>8</v>
+      </c>
       <c r="I55" s="5">
         <v>0</v>
       </c>

--- a/Document/데이터/미션데이터.xlsx
+++ b/Document/데이터/미션데이터.xlsx
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I55"/>
+  <dimension ref="B1:I53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -740,6 +740,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>2</v>
@@ -754,13 +780,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -780,13 +806,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
@@ -806,13 +832,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H15" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -832,41 +858,41 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4">
-        <v>4</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -884,13 +910,13 @@
         <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -910,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3">
         <v>0</v>
@@ -936,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -962,41 +988,41 @@
         <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2</v>
+      </c>
+      <c r="I22" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1014,13 +1040,13 @@
         <v>3</v>
       </c>
       <c r="F23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="5">
         <v>0</v>
@@ -1040,13 +1066,13 @@
         <v>3</v>
       </c>
       <c r="F24" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H24" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
@@ -1066,13 +1092,13 @@
         <v>3</v>
       </c>
       <c r="F25" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H25" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" s="5">
         <v>0</v>
@@ -1092,41 +1118,67 @@
         <v>3</v>
       </c>
       <c r="F26" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5">
-        <v>5</v>
-      </c>
-      <c r="E27" s="5">
-        <v>3</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5">
-        <v>10</v>
-      </c>
-      <c r="H27" s="5">
-        <v>4</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>180</v>
+      </c>
+      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4">
+        <v>180</v>
+      </c>
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1144,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -1170,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H30" s="4">
         <v>2</v>
@@ -1196,13 +1248,13 @@
         <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
@@ -1222,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4">
         <v>6</v>
-      </c>
-      <c r="H32" s="4">
-        <v>2</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -1248,10 +1300,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G33" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H33" s="4">
         <v>3</v>
@@ -1274,13 +1326,13 @@
         <v>1</v>
       </c>
       <c r="F34" s="4">
+        <v>8</v>
+      </c>
+      <c r="G34" s="4">
         <v>6</v>
       </c>
-      <c r="G34" s="4">
-        <v>2</v>
-      </c>
       <c r="H34" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" s="4">
         <v>0</v>
@@ -1300,67 +1352,67 @@
         <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G35" s="4">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4">
         <v>8</v>
       </c>
-      <c r="H35" s="4">
-        <v>3</v>
-      </c>
       <c r="I35" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="4">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4">
-        <v>180</v>
-      </c>
-      <c r="D36" s="4">
-        <v>10</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>8</v>
-      </c>
-      <c r="G36" s="4">
-        <v>6</v>
-      </c>
-      <c r="H36" s="4">
-        <v>5</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>180</v>
+      </c>
+      <c r="D36" s="3">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="4">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4">
-        <v>180</v>
-      </c>
-      <c r="D37" s="4">
-        <v>10</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>9</v>
-      </c>
-      <c r="G37" s="4">
-        <v>3</v>
-      </c>
-      <c r="H37" s="4">
-        <v>8</v>
-      </c>
-      <c r="I37" s="4">
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>180</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="H37" s="3">
+        <v>2</v>
+      </c>
+      <c r="I37" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1378,13 +1430,13 @@
         <v>2</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H38" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -1404,10 +1456,10 @@
         <v>2</v>
       </c>
       <c r="F39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H39" s="3">
         <v>2</v>
@@ -1430,13 +1482,13 @@
         <v>2</v>
       </c>
       <c r="F40" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H40" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -1456,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="F41" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" s="3">
+        <v>2</v>
+      </c>
+      <c r="H41" s="3">
         <v>6</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -1482,10 +1534,10 @@
         <v>2</v>
       </c>
       <c r="F42" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G42" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H42" s="3">
         <v>3</v>
@@ -1508,13 +1560,13 @@
         <v>2</v>
       </c>
       <c r="F43" s="3">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
         <v>6</v>
       </c>
-      <c r="G43" s="3">
-        <v>2</v>
-      </c>
       <c r="H43" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1534,67 +1586,67 @@
         <v>2</v>
       </c>
       <c r="F44" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G44" s="3">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
-        <v>3</v>
-      </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="3">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3">
-        <v>180</v>
-      </c>
-      <c r="D45" s="3">
-        <v>10</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6</v>
-      </c>
-      <c r="H45" s="3">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="B45" s="5">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5">
+        <v>180</v>
+      </c>
+      <c r="D45" s="5">
+        <v>10</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>4</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="3">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3">
-        <v>180</v>
-      </c>
-      <c r="D46" s="3">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2</v>
-      </c>
-      <c r="F46" s="3">
-        <v>9</v>
-      </c>
-      <c r="G46" s="3">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="B46" s="5">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5">
+        <v>180</v>
+      </c>
+      <c r="D46" s="5">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5">
+        <v>2</v>
+      </c>
+      <c r="G46" s="5">
+        <v>3</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
+      </c>
+      <c r="I46" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1612,13 +1664,13 @@
         <v>3</v>
       </c>
       <c r="F47" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47" s="5">
         <v>0</v>
@@ -1638,10 +1690,10 @@
         <v>3</v>
       </c>
       <c r="F48" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H48" s="5">
         <v>2</v>
@@ -1664,13 +1716,13 @@
         <v>3</v>
       </c>
       <c r="F49" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G49" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H49" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" s="5">
         <v>0</v>
@@ -1690,13 +1742,13 @@
         <v>3</v>
       </c>
       <c r="F50" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G50" s="5">
+        <v>2</v>
+      </c>
+      <c r="H50" s="5">
         <v>6</v>
-      </c>
-      <c r="H50" s="5">
-        <v>2</v>
       </c>
       <c r="I50" s="5">
         <v>0</v>
@@ -1716,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="F51" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G51" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H51" s="5">
         <v>3</v>
@@ -1742,13 +1794,13 @@
         <v>3</v>
       </c>
       <c r="F52" s="5">
+        <v>8</v>
+      </c>
+      <c r="G52" s="5">
         <v>6</v>
       </c>
-      <c r="G52" s="5">
-        <v>2</v>
-      </c>
       <c r="H52" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I52" s="5">
         <v>0</v>
@@ -1768,67 +1820,15 @@
         <v>3</v>
       </c>
       <c r="F53" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G53" s="5">
+        <v>3</v>
+      </c>
+      <c r="H53" s="5">
         <v>8</v>
       </c>
-      <c r="H53" s="5">
-        <v>3</v>
-      </c>
       <c r="I53" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="5">
-        <v>3</v>
-      </c>
-      <c r="C54" s="5">
-        <v>180</v>
-      </c>
-      <c r="D54" s="5">
-        <v>10</v>
-      </c>
-      <c r="E54" s="5">
-        <v>3</v>
-      </c>
-      <c r="F54" s="5">
-        <v>8</v>
-      </c>
-      <c r="G54" s="5">
-        <v>6</v>
-      </c>
-      <c r="H54" s="5">
-        <v>5</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="5">
-        <v>3</v>
-      </c>
-      <c r="C55" s="5">
-        <v>180</v>
-      </c>
-      <c r="D55" s="5">
-        <v>10</v>
-      </c>
-      <c r="E55" s="5">
-        <v>3</v>
-      </c>
-      <c r="F55" s="5">
-        <v>9</v>
-      </c>
-      <c r="G55" s="5">
-        <v>3</v>
-      </c>
-      <c r="H55" s="5">
-        <v>8</v>
-      </c>
-      <c r="I55" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Document/데이터/미션데이터.xlsx
+++ b/Document/데이터/미션데이터.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Desktop\MondayClass\Document\데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77399EA8-9098-4234-89A0-0D4CDFBD1621}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="29610" yWindow="375" windowWidth="24510" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mission" sheetId="1" r:id="rId1"/>
@@ -25,14 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
-  <si>
-    <t>MissionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#미션 타입 1:(섬멸) 2:(방어) 3:(생존)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>Monster2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,11 +57,19 @@
     <t>LimitTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>미션 타입 1:(섬멸) 2:(방어) 3:(생존)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#MissionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,12 +462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,33 +478,33 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -745,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
         <v>5</v>
@@ -771,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
         <v>5</v>
@@ -797,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4">
         <v>5</v>
@@ -823,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
@@ -849,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
         <v>5</v>
@@ -875,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -901,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -927,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
@@ -953,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
@@ -979,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
@@ -1005,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5">
         <v>5</v>
@@ -1031,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5">
         <v>5</v>
@@ -1057,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5">
         <v>5</v>
@@ -1083,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="5">
         <v>5</v>
@@ -1109,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" s="5">
         <v>5</v>
